--- a/output/fit_clients/fit_round_29.xlsx
+++ b/output/fit_clients/fit_round_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,7 +471,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>sigmoid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_mu</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_U</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>g</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -485,25 +510,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D2" t="n">
-        <v>4844624854.736756</v>
+        <v>7785024907.511035</v>
       </c>
       <c r="E2" t="n">
-        <v>0.001351815838892293</v>
+        <v>0.004212508431506714</v>
       </c>
       <c r="F2" t="n">
-        <v>0.2568228268043279</v>
+        <v>0.160493902697026</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.586185819825903</v>
+        <v>0.3084069276308846</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1573372365123479</v>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.253132714455287</v>
+      </c>
+      <c r="L2" t="n">
+        <v>8.662247556679525</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.7485212839354174</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.308178122028824</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +556,40 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>555</v>
+        <v>601</v>
       </c>
       <c r="D3" t="n">
-        <v>10073612327.65828</v>
+        <v>4295653698.298139</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004891641142873002</v>
+        <v>0.004729482473230561</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1443138173988023</v>
+        <v>0.3664758615490097</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1797846850367545</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1.924486881932545</v>
+        <v>12</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.9884664270574184</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4904060675572361</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.917908426459556</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.8666408335251989</v>
+      </c>
+      <c r="N3" t="n">
+        <v>14.41490824404442</v>
       </c>
     </row>
     <row r="4">
@@ -547,25 +602,40 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>567</v>
+        <v>500</v>
       </c>
       <c r="D4" t="n">
-        <v>4588374790.065668</v>
+        <v>5014123769.932177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002660625459979935</v>
+        <v>0.004673846907399744</v>
       </c>
       <c r="F4" t="n">
-        <v>0.3236863155153775</v>
+        <v>0.2612011709510943</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8277077906592666</v>
+        <v>0.6465358077032426</v>
       </c>
       <c r="I4" t="n">
-        <v>1.966097409109465</v>
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.1290021809797127</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8.53811702320395</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.7601183999633003</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.664250976062055</v>
       </c>
     </row>
     <row r="5">
@@ -578,25 +648,40 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>554</v>
+        <v>411</v>
       </c>
       <c r="D5" t="n">
-        <v>4286645903.75943</v>
+        <v>12103216417.88716</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004016583157079982</v>
+        <v>0.001223787715423529</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3385262260004575</v>
+        <v>0.08894902419566381</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8813119997192539</v>
+        <v>0.06819199516396938</v>
       </c>
       <c r="I5" t="n">
-        <v>1.921019338001135</v>
+        <v>13</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1108747270604266</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.443143553591562</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.4863463344807992</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-12.17007024320754</v>
       </c>
     </row>
     <row r="6">
@@ -609,25 +694,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>467</v>
+        <v>514</v>
       </c>
       <c r="D6" t="n">
-        <v>4367049908.226121</v>
+        <v>11902350748.32187</v>
       </c>
       <c r="E6" t="n">
-        <v>0.004860331894281408</v>
+        <v>0.001582336081445277</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2801101786576288</v>
+        <v>0.1131176931741679</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6703035831003422</v>
+        <v>0.1493393156723974</v>
       </c>
       <c r="I6" t="n">
-        <v>1.619343015968466</v>
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.2051108162877704</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.614225658512009</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.7669801575292706</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.725377492073404</v>
       </c>
     </row>
     <row r="7">
@@ -640,25 +740,40 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>449</v>
+        <v>612</v>
       </c>
       <c r="D7" t="n">
-        <v>9895069875.121403</v>
+        <v>5697424064.885423</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00476053254405719</v>
+        <v>0.001883725710957506</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1188577872458501</v>
+        <v>0.2813669233224328</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.08783329735634313</v>
+        <v>0.714243167691748</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1208593854618661</v>
+        <v>14</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3927528687266489</v>
+      </c>
+      <c r="L7" t="n">
+        <v>2.640183344843699</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.4071845797491457</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5.503508250139216</v>
       </c>
     </row>
     <row r="8">
@@ -671,25 +786,40 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>584</v>
+        <v>460</v>
       </c>
       <c r="D8" t="n">
-        <v>5136336591.421832</v>
+        <v>7604048378.130454</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002545926378417389</v>
+        <v>0.00141942319606712</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2978238931137775</v>
+        <v>0.158457618900137</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7342884470178822</v>
+        <v>0.3015700193154436</v>
       </c>
       <c r="I8" t="n">
-        <v>2.025045655943435</v>
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1093358048275254</v>
+      </c>
+      <c r="L8" t="n">
+        <v>8.518450647051763</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.7396720811619585</v>
+      </c>
+      <c r="N8" t="n">
+        <v>6.274990976187407</v>
       </c>
     </row>
     <row r="9">
@@ -702,25 +832,40 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="D9" t="n">
-        <v>5472873053.256179</v>
+        <v>8057476891.518308</v>
       </c>
       <c r="E9" t="n">
-        <v>0.004667730463380518</v>
+        <v>0.003457409428442477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2125043187888394</v>
+        <v>0.1654698521572509</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4261000449637532</v>
+        <v>0.3251138867953194</v>
       </c>
       <c r="I9" t="n">
-        <v>1.539589505546036</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.4145510261416697</v>
+      </c>
+      <c r="L9" t="n">
+        <v>8.823665868365907</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.7645460066678692</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.467254264991476</v>
       </c>
     </row>
     <row r="10">
@@ -733,25 +878,40 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>553</v>
+        <v>522</v>
       </c>
       <c r="D10" t="n">
-        <v>10206446851.24962</v>
+        <v>11389538668.99517</v>
       </c>
       <c r="E10" t="n">
-        <v>0.001195970560627643</v>
+        <v>0.002444318691671547</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1419223252823436</v>
+        <v>0.1200506552317303</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1711462203030993</v>
+        <v>0.1726170267725894</v>
       </c>
       <c r="I10" t="n">
-        <v>1.917551794069725</v>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.08828996757149382</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.497404809795732</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.7708377128743643</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.919349447691554</v>
       </c>
     </row>
     <row r="11">
@@ -764,25 +924,40 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="D11" t="n">
-        <v>4621725267.366033</v>
+        <v>4404939194.746998</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002341589887010742</v>
+        <v>0.003264219028667802</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2329366692567487</v>
+        <v>0.3443014177831594</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4999050714273503</v>
+        <v>0.9255483743451504</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1111162718851824</v>
+        <v>10</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.9807864051149016</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3437651775122509</v>
+      </c>
+      <c r="L11" t="n">
+        <v>3.002960778247856</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.8763009216662457</v>
+      </c>
+      <c r="N11" t="n">
+        <v>14.52305765507706</v>
       </c>
     </row>
     <row r="12">
@@ -795,25 +970,40 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D12" t="n">
-        <v>5866308352.746157</v>
+        <v>8839381793.89514</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001210634708075548</v>
+        <v>0.001077080645217143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2161128743610145</v>
+        <v>0.144017259315488</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.4391347440267921</v>
+        <v>0.2530859059157909</v>
       </c>
       <c r="I12" t="n">
-        <v>1.678291262802436</v>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.1607638034554517</v>
+      </c>
+      <c r="L12" t="n">
+        <v>8.569878645679688</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.7531089846549219</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.492301047418751</v>
       </c>
     </row>
     <row r="13">
@@ -826,25 +1016,40 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="D13" t="n">
-        <v>7275666751.41243</v>
+        <v>8724435948.372761</v>
       </c>
       <c r="E13" t="n">
-        <v>0.003799180704273011</v>
+        <v>0.004896683613022226</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1702897497001876</v>
+        <v>0.1642291075868624</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2736140451943835</v>
+        <v>0.3209480348234149</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1226727184267111</v>
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.2492774227933591</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.052315703534771</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.5833456131838154</v>
+      </c>
+      <c r="N13" t="n">
+        <v>8.614596560141536</v>
       </c>
     </row>
     <row r="14">
@@ -857,25 +1062,40 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="D14" t="n">
-        <v>4824381952.923778</v>
+        <v>8410768129.988259</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002083211896376473</v>
+        <v>0.002813756704495657</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2872196529050179</v>
+        <v>0.1915312400845187</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.6959841789669279</v>
+        <v>0.41261609061587</v>
       </c>
       <c r="I14" t="n">
-        <v>1.834330739715886</v>
+        <v>14</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9886774098047013</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.3712949447311656</v>
+      </c>
+      <c r="L14" t="n">
+        <v>2.618725420848216</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.8474458909919036</v>
+      </c>
+      <c r="N14" t="n">
+        <v>14.33019239898986</v>
       </c>
     </row>
     <row r="15">
@@ -888,25 +1108,40 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>561</v>
+        <v>375</v>
       </c>
       <c r="D15" t="n">
-        <v>10496903170.06897</v>
+        <v>10266491439.89761</v>
       </c>
       <c r="E15" t="n">
-        <v>0.003835257473186202</v>
+        <v>0.001760728831000593</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1399915542890871</v>
+        <v>0.09567740408205089</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1641719564034932</v>
+        <v>0.09078281303766875</v>
       </c>
       <c r="I15" t="n">
-        <v>1.945292145521005</v>
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1058441099141851</v>
+      </c>
+      <c r="L15" t="n">
+        <v>6.051986238627387</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6656330043844229</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.260673849061069</v>
       </c>
     </row>
     <row r="16">
@@ -919,25 +1154,40 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>597</v>
+        <v>509</v>
       </c>
       <c r="D16" t="n">
-        <v>9108514482.796715</v>
+        <v>4758761015.788507</v>
       </c>
       <c r="E16" t="n">
-        <v>0.001409256946904231</v>
+        <v>0.004064863544109287</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1716828614538089</v>
+        <v>0.280171562635003</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2786461950688802</v>
+        <v>0.7102296940117404</v>
       </c>
       <c r="I16" t="n">
-        <v>2.070123727051765</v>
+        <v>8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9859305615663406</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.4260467183683881</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.39911778272499</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.8570251256233103</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13.74138472974122</v>
       </c>
     </row>
     <row r="17">
@@ -950,25 +1200,40 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>443</v>
+        <v>548</v>
       </c>
       <c r="D17" t="n">
-        <v>10384385862.61111</v>
+        <v>15301140173.79926</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002632533958853625</v>
+        <v>0.003703471732622985</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1117437068838103</v>
+        <v>0.0938116835540096</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.06213606344245041</v>
+        <v>0.08451857805630607</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1253720299940099</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.4100367184014016</v>
+      </c>
+      <c r="L17" t="n">
+        <v>8.81915156062564</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.7830735380504601</v>
+      </c>
+      <c r="N17" t="n">
+        <v>6.842319200383562</v>
       </c>
     </row>
     <row r="18">
@@ -981,25 +1246,40 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>466</v>
+        <v>419</v>
       </c>
       <c r="D18" t="n">
-        <v>6325104219.37463</v>
+        <v>6253786898.995968</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002530237705619667</v>
+        <v>0.00268396840055083</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1929827078992677</v>
+        <v>0.1754975709479652</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3555847603625139</v>
+        <v>0.3587823735209315</v>
       </c>
       <c r="I18" t="n">
-        <v>1.615875472037056</v>
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.1607979897498079</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8.569912831974046</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.7172479540258262</v>
+      </c>
+      <c r="N18" t="n">
+        <v>5.775046248542479</v>
       </c>
     </row>
     <row r="19">
@@ -1012,25 +1292,40 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>11139556138.82064</v>
+        <v>12528381628.95977</v>
       </c>
       <c r="E19" t="n">
-        <v>0.003725842327384357</v>
+        <v>0.004381170488033023</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1180418468755267</v>
+        <v>0.1045382427505718</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08488598589949371</v>
+        <v>0.1205334507764476</v>
       </c>
       <c r="I19" t="n">
-        <v>1.740707053567816</v>
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.5012376349196741</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.910352477143912</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7601183999633003</v>
+      </c>
+      <c r="N19" t="n">
+        <v>6.292015522122094</v>
       </c>
     </row>
     <row r="20">
@@ -1043,25 +1338,40 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="D20" t="n">
-        <v>5993708938.664959</v>
+        <v>4227582655.551083</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002579420329773804</v>
+        <v>0.00339823203015052</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2556585856405157</v>
+        <v>0.3500712985603546</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.5819803883440909</v>
+        <v>0.9449209912293863</v>
       </c>
       <c r="I20" t="n">
-        <v>2.028513199874845</v>
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.74589236555726</v>
+      </c>
+      <c r="L20" t="n">
+        <v>9.155007207781498</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7908388195588744</v>
+      </c>
+      <c r="N20" t="n">
+        <v>6.66176918339599</v>
       </c>
     </row>
     <row r="21">
@@ -1074,25 +1384,40 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>540</v>
+        <v>377</v>
       </c>
       <c r="D21" t="n">
-        <v>10948357098.44719</v>
+        <v>13675723125.92023</v>
       </c>
       <c r="E21" t="n">
-        <v>0.004981914292164171</v>
+        <v>0.002392255091252635</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1291947812152214</v>
+        <v>0.07220898090049266</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1251722278265172</v>
+        <v>0.01198659718336884</v>
       </c>
       <c r="I21" t="n">
-        <v>1.872473722961395</v>
+        <v>7</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.1255351042622175</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.303881764077572</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.4803988677398442</v>
+      </c>
+      <c r="N21" t="n">
+        <v>6.304095590719314</v>
       </c>
     </row>
     <row r="22">
@@ -1105,25 +1430,40 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548</v>
+        <v>604</v>
       </c>
       <c r="D22" t="n">
-        <v>4695942828.962861</v>
+        <v>14496060356.60104</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003435409090929079</v>
+        <v>0.004228785649608674</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3056735936278479</v>
+        <v>0.1091407955734371</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7626428624867336</v>
+        <v>0.1359867150586556</v>
       </c>
       <c r="I22" t="n">
-        <v>1.900214074412675</v>
+        <v>11</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.9847789950110876</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.3239282429641938</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.859371765752052</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.8813331168285043</v>
+      </c>
+      <c r="N22" t="n">
+        <v>14.76729057081803</v>
       </c>
     </row>
     <row r="23">
@@ -1136,25 +1476,40 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>478</v>
+        <v>538</v>
       </c>
       <c r="D23" t="n">
-        <v>6819959247.284563</v>
+        <v>7309018449.487194</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003950282358147591</v>
+        <v>0.00442692559926159</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1835888418979225</v>
+        <v>0.1928072599267926</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3216525639706362</v>
+        <v>0.4169003807937116</v>
       </c>
       <c r="I23" t="n">
-        <v>1.657485999213976</v>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.4719053501680949</v>
+      </c>
+      <c r="L23" t="n">
+        <v>8.881020192392333</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.7784204748721666</v>
+      </c>
+      <c r="N23" t="n">
+        <v>6.687389305050999</v>
       </c>
     </row>
     <row r="24">
@@ -1167,25 +1522,40 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>525</v>
+        <v>569</v>
       </c>
       <c r="D24" t="n">
-        <v>8104484043.359201</v>
+        <v>13446936509.79676</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002757449512240559</v>
+        <v>0.004152234714061027</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1696813446288193</v>
+        <v>0.1108381012220996</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2714163855338638</v>
+        <v>0.1416854900137546</v>
       </c>
       <c r="I24" t="n">
-        <v>1.820460563990246</v>
+        <v>11</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.9884870899817495</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.3311801508533949</v>
+      </c>
+      <c r="L24" t="n">
+        <v>2.866623673641253</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.8579204703053094</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.29178573246493</v>
       </c>
     </row>
     <row r="25">
@@ -1198,25 +1568,40 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="D25" t="n">
-        <v>6331173225.142365</v>
+        <v>11271617558.81783</v>
       </c>
       <c r="E25" t="n">
-        <v>0.003374091722585616</v>
+        <v>0.003735397575031725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.208933147611082</v>
+        <v>0.1145673425541097</v>
       </c>
       <c r="G25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4132003845113554</v>
+        <v>0.1542065743105793</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1415050322527935</v>
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.332831625603894</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8.741946467828132</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.7566326316058936</v>
+      </c>
+      <c r="N25" t="n">
+        <v>6.390706164289739</v>
       </c>
     </row>
     <row r="26">
@@ -1229,25 +1614,40 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>418</v>
+        <v>591</v>
       </c>
       <c r="D26" t="n">
-        <v>9930594634.669415</v>
+        <v>12204843983.43393</v>
       </c>
       <c r="E26" t="n">
-        <v>0.001619619687924144</v>
+        <v>0.003346233460880628</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102557359634335</v>
+        <v>0.1268397606803689</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0567612665815626</v>
+        <v>0.195411733270336</v>
       </c>
       <c r="I26" t="n">
-        <v>1.449433363329377</v>
+        <v>15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.3282422968227051</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.499466412841377</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-0.1700910988718865</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-5.901288390279106</v>
       </c>
     </row>
     <row r="27">
@@ -1260,25 +1660,40 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="D27" t="n">
-        <v>9529998092.347973</v>
+        <v>10841445901.14065</v>
       </c>
       <c r="E27" t="n">
-        <v>0.001976772246546785</v>
+        <v>0.00401423750995453</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1536452574083617</v>
+        <v>0.141824434122595</v>
       </c>
       <c r="G27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2134913884300169</v>
+        <v>0.2457234032928741</v>
       </c>
       <c r="I27" t="n">
-        <v>1.938357057658185</v>
+        <v>16</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.9883062110860814</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.3515296152021845</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.453808325758244</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7913530788918995</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13.37325325207975</v>
       </c>
     </row>
     <row r="28">
@@ -1291,25 +1706,40 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>440</v>
+        <v>578</v>
       </c>
       <c r="D28" t="n">
-        <v>6743475394.547657</v>
+        <v>14297702598.7967</v>
       </c>
       <c r="E28" t="n">
-        <v>0.004708951780596967</v>
+        <v>0.003820774004081493</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1709106258372149</v>
+        <v>0.1058916570363842</v>
       </c>
       <c r="G28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2758567524049849</v>
+        <v>0.125077596046888</v>
       </c>
       <c r="I28" t="n">
-        <v>1.525719329820396</v>
+        <v>11</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.9865628709278504</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.3586713948247912</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.894114917612649</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.8636889520888863</v>
+      </c>
+      <c r="N28" t="n">
+        <v>14.37966412416508</v>
       </c>
     </row>
     <row r="29">
@@ -1322,25 +1752,40 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>521</v>
+        <v>618</v>
       </c>
       <c r="D29" t="n">
-        <v>10720147284.27036</v>
+        <v>10751496295.06756</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003648709149239378</v>
+        <v>0.004965611296417732</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1273025597327775</v>
+        <v>0.1505635100058254</v>
       </c>
       <c r="G29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1183372111305136</v>
+        <v>0.2750652173693837</v>
       </c>
       <c r="I29" t="n">
-        <v>1.806590388264606</v>
+        <v>11</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.3039302971158022</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.83937381990366</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.5756805108142191</v>
+      </c>
+      <c r="N29" t="n">
+        <v>8.674236396380723</v>
       </c>
     </row>
     <row r="30">
@@ -1353,25 +1798,40 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>588</v>
+        <v>477</v>
       </c>
       <c r="D30" t="n">
-        <v>4556306186.576855</v>
+        <v>7525327899.780012</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003692672530015469</v>
+        <v>0.004754256667193547</v>
       </c>
       <c r="F30" t="n">
-        <v>0.3380372733811269</v>
+        <v>0.1660325033858691</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8795458220557582</v>
+        <v>0.3270030119111356</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1194161457872616</v>
+        <v>1</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.08891684913212877</v>
+      </c>
+      <c r="L30" t="n">
+        <v>8.498031691356367</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.7485212839354174</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6.472393987351982</v>
       </c>
     </row>
     <row r="31">
@@ -1384,25 +1844,40 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>562</v>
+        <v>375</v>
       </c>
       <c r="D31" t="n">
-        <v>7951301367.180989</v>
+        <v>3455807398.737004</v>
       </c>
       <c r="E31" t="n">
-        <v>0.004953000027454639</v>
+        <v>0.00204219693722102</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1851391504384532</v>
+        <v>0.2842378456504814</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3272525346172008</v>
+        <v>0.7238824099072033</v>
       </c>
       <c r="I31" t="n">
-        <v>1.948759689452415</v>
+        <v>4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.266000698078337</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.470558119190456</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.6062050213722224</v>
+      </c>
+      <c r="N31" t="n">
+        <v>7.653542308253992</v>
       </c>
     </row>
     <row r="32">
@@ -1415,25 +1890,40 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="D32" t="n">
-        <v>9445098925.954178</v>
+        <v>10479261241.20361</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002302539363220608</v>
+        <v>0.003322977913475706</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1242429252673444</v>
+        <v>0.09923388739572649</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.1072853058176673</v>
+        <v>0.1027238550368949</v>
       </c>
       <c r="I32" t="n">
-        <v>1.553459681271676</v>
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1469596024844155</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.120030666841017</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4498639564803828</v>
+      </c>
+      <c r="N32" t="n">
+        <v>5.877248462766638</v>
       </c>
     </row>
     <row r="33">
@@ -1446,25 +1936,40 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>419</v>
+        <v>519</v>
       </c>
       <c r="D33" t="n">
-        <v>7197352440.801226</v>
+        <v>3907446078.851657</v>
       </c>
       <c r="E33" t="n">
-        <v>0.003042729667140085</v>
+        <v>0.003449276237456637</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1524900189378278</v>
+        <v>0.347916102376396</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2093184761640771</v>
+        <v>0.9376848295833403</v>
       </c>
       <c r="I33" t="n">
-        <v>1.452900907260787</v>
+        <v>1</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.1980929324883558</v>
+      </c>
+      <c r="L33" t="n">
+        <v>8.607207774712593</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.7693964151660361</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6.780720528608128</v>
       </c>
     </row>
     <row r="34">
@@ -1477,25 +1982,40 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>537</v>
+        <v>424</v>
       </c>
       <c r="D34" t="n">
-        <v>10612191684.80196</v>
+        <v>8402600289.172595</v>
       </c>
       <c r="E34" t="n">
-        <v>0.00168172816104123</v>
+        <v>0.004010447019284172</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1325468359202795</v>
+        <v>0.1321759124292896</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.1372804033691599</v>
+        <v>0.2133280867375625</v>
       </c>
       <c r="I34" t="n">
-        <v>1.862071091167166</v>
+        <v>6</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.3228009004294777</v>
+      </c>
+      <c r="L34" t="n">
+        <v>3.75580765908182</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.5794821375500631</v>
+      </c>
+      <c r="N34" t="n">
+        <v>7.833835091919441</v>
       </c>
     </row>
     <row r="35">
@@ -1508,25 +2028,40 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>474</v>
+        <v>611</v>
       </c>
       <c r="D35" t="n">
-        <v>7616427438.635345</v>
+        <v>10771033936.42901</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002295289182122432</v>
+        <v>0.00487487922544918</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1630148609703632</v>
+        <v>0.1485880835067358</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2473359448814654</v>
+        <v>0.2684326399856214</v>
       </c>
       <c r="I35" t="n">
-        <v>0.1391644301442408</v>
+        <v>12</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.9882267712544418</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.4122189653724704</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2.839721324274791</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.8736776229533348</v>
+      </c>
+      <c r="N35" t="n">
+        <v>14.6338311347919</v>
       </c>
     </row>
     <row r="36">
@@ -1539,25 +2074,40 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="D36" t="n">
-        <v>4643262485.793381</v>
+        <v>8015090391.932079</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0016731837889433</v>
+        <v>0.004396834918372778</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3328349635043161</v>
+        <v>0.1513117769976458</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8607542190665236</v>
+        <v>0.2775775552008601</v>
       </c>
       <c r="I36" t="n">
-        <v>2.045850919531895</v>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.1447429700792935</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8.553857812303532</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.7412516785244092</v>
+      </c>
+      <c r="N36" t="n">
+        <v>6.271175758184652</v>
       </c>
     </row>
     <row r="37">
@@ -1570,25 +2120,40 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>459</v>
+        <v>378</v>
       </c>
       <c r="D37" t="n">
-        <v>4688224982.597684</v>
+        <v>4953953207.626882</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003464404985076307</v>
+        <v>0.003463822825190348</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2564510053299152</v>
+        <v>0.1998665264895199</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.5848427392145037</v>
+        <v>0.4406021645712771</v>
       </c>
       <c r="I37" t="n">
-        <v>1.591602664517186</v>
+        <v>6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.2619616085761116</v>
+      </c>
+      <c r="L37" t="n">
+        <v>3.694968367228454</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.5322361091258637</v>
+      </c>
+      <c r="N37" t="n">
+        <v>6.949753815288821</v>
       </c>
     </row>
     <row r="38">
@@ -1601,25 +2166,40 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>409</v>
+        <v>481</v>
       </c>
       <c r="D38" t="n">
-        <v>11331816191.219</v>
+        <v>4522826799.622956</v>
       </c>
       <c r="E38" t="n">
-        <v>0.001880144056847697</v>
+        <v>0.002473299080977689</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09454181853304076</v>
+        <v>0.2785706032574657</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.7048544057058129</v>
       </c>
       <c r="I38" t="n">
-        <v>1.418225467946687</v>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.185263249270528</v>
+      </c>
+      <c r="L38" t="n">
+        <v>8.594378091494766</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.750568342233297</v>
+      </c>
+      <c r="N38" t="n">
+        <v>6.416988753171175</v>
       </c>
     </row>
     <row r="39">
@@ -1632,25 +2212,40 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>445</v>
+        <v>573</v>
       </c>
       <c r="D39" t="n">
-        <v>9418716697.078646</v>
+        <v>8909180929.775509</v>
       </c>
       <c r="E39" t="n">
-        <v>0.003428804882655717</v>
+        <v>0.003401184631037176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1237566207253624</v>
+        <v>0.1684678402908829</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.1055286934471659</v>
+        <v>0.335179757786257</v>
       </c>
       <c r="I39" t="n">
-        <v>0.1333494291029071</v>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.8796055806886142</v>
+      </c>
+      <c r="L39" t="n">
+        <v>9.288720422912851</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.7944323024967206</v>
+      </c>
+      <c r="N39" t="n">
+        <v>6.599925627021561</v>
       </c>
     </row>
     <row r="40">
@@ -1663,25 +2258,40 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D40" t="n">
-        <v>6537152613.62739</v>
+        <v>6517477506.750119</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003944419583593229</v>
+        <v>0.002234513778143185</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2131685708384823</v>
+        <v>0.2134101864654624</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4284994331388625</v>
+        <v>0.4860755713982096</v>
       </c>
       <c r="I40" t="n">
-        <v>1.844733371510116</v>
+        <v>1</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.4009578770091899</v>
+      </c>
+      <c r="L40" t="n">
+        <v>8.810072719233428</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.7751243024553174</v>
+      </c>
+      <c r="N40" t="n">
+        <v>6.69241332987292</v>
       </c>
     </row>
     <row r="41">
@@ -1694,25 +2304,40 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D41" t="n">
-        <v>9813229355.318224</v>
+        <v>14376942427.97503</v>
       </c>
       <c r="E41" t="n">
-        <v>0.001532106934649001</v>
+        <v>0.00219550369589986</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1305260137740318</v>
+        <v>0.08162282946314084</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.129980859823434</v>
+        <v>0.0435939888527424</v>
       </c>
       <c r="I41" t="n">
-        <v>1.695628982459486</v>
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.2505881178236177</v>
+      </c>
+      <c r="L41" t="n">
+        <v>8.659702960047856</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0.7332736084634551</v>
+      </c>
+      <c r="N41" t="n">
+        <v>6.005769209221247</v>
       </c>
     </row>
     <row r="42">
@@ -1725,25 +2350,40 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="D42" t="n">
-        <v>9837002601.798147</v>
+        <v>6197099614.271794</v>
       </c>
       <c r="E42" t="n">
-        <v>0.001144279356828981</v>
+        <v>0.004753020793672395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1238198666103182</v>
+        <v>0.1825977554716084</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1057571480354038</v>
+        <v>0.3826215410696908</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1497774640700129</v>
+        <v>1</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2019701943007429</v>
+      </c>
+      <c r="L42" t="n">
+        <v>8.611085036524981</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.724534249243546</v>
+      </c>
+      <c r="N42" t="n">
+        <v>5.879599948345939</v>
       </c>
     </row>
     <row r="43">
@@ -1756,25 +2396,40 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>487</v>
+        <v>378</v>
       </c>
       <c r="D43" t="n">
-        <v>7854475811.424383</v>
+        <v>8306745865.387973</v>
       </c>
       <c r="E43" t="n">
-        <v>0.004111428154496694</v>
+        <v>0.003894510149731226</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1624096834246494</v>
+        <v>0.1191958242186762</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.2451499435769785</v>
+        <v>0.1697468957670904</v>
       </c>
       <c r="I43" t="n">
-        <v>1.688693894596666</v>
+        <v>3</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.1276158596907264</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4.982620577495367</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.6397648650334522</v>
+      </c>
+      <c r="N43" t="n">
+        <v>7.812676723173678</v>
       </c>
     </row>
     <row r="44">
@@ -1787,25 +2442,40 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D44" t="n">
-        <v>8018889625.488794</v>
+        <v>6007694839.336189</v>
       </c>
       <c r="E44" t="n">
-        <v>0.001635809515497397</v>
+        <v>0.00239899485333726</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1878251628769853</v>
+        <v>0.2568074363395048</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3369548554255073</v>
+        <v>0.6317836593299608</v>
       </c>
       <c r="I44" t="n">
-        <v>1.993837760560745</v>
+        <v>20</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.9894850896229236</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.3275453289010906</v>
+      </c>
+      <c r="L44" t="n">
+        <v>2.207880570682672</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0.7138526623954391</v>
+      </c>
+      <c r="N44" t="n">
+        <v>12.06917267722611</v>
       </c>
     </row>
     <row r="45">
@@ -1818,25 +2488,40 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>598</v>
+        <v>376</v>
       </c>
       <c r="D45" t="n">
-        <v>8920594595.10886</v>
+        <v>11441603782.02865</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001034802239271949</v>
+        <v>0.001818596851300997</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1755931404907528</v>
+        <v>0.08607977157424118</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.292770769148351</v>
+        <v>0.05855835905859208</v>
       </c>
       <c r="I45" t="n">
-        <v>2.073591270983175</v>
+        <v>4</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.2340962035540965</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.438653624666215</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.6070434231590399</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7.702214838514583</v>
       </c>
     </row>
     <row r="46">
@@ -1849,25 +2534,40 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>410</v>
+        <v>594</v>
       </c>
       <c r="D46" t="n">
-        <v>4253410425.159139</v>
+        <v>12150809736.0241</v>
       </c>
       <c r="E46" t="n">
-        <v>0.002323942061119299</v>
+        <v>0.001716169518917231</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2524914815761798</v>
+        <v>0.1280505327465621</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0.5705402850799853</v>
+        <v>0.1994769513013918</v>
       </c>
       <c r="I46" t="n">
-        <v>1.421693011878097</v>
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.9868421557924206</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.3378475301224195</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.873291052910278</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.8752363683015324</v>
+      </c>
+      <c r="N46" t="n">
+        <v>14.63143631312037</v>
       </c>
     </row>
     <row r="47">
@@ -1880,25 +2580,40 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>475</v>
+        <v>419</v>
       </c>
       <c r="D47" t="n">
-        <v>5829781447.413412</v>
+        <v>11190652325.39264</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004545676530028684</v>
+        <v>0.003104837579760703</v>
       </c>
       <c r="F47" t="n">
-        <v>0.2134231379380504</v>
+        <v>0.09807510572995051</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4294189715713054</v>
+        <v>0.0988331969573934</v>
       </c>
       <c r="I47" t="n">
-        <v>1.647083367419746</v>
+        <v>1</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.2483044215716604</v>
+      </c>
+      <c r="L47" t="n">
+        <v>8.657419263795898</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0.7172479540258262</v>
+      </c>
+      <c r="N47" t="n">
+        <v>5.687539816720626</v>
       </c>
     </row>
     <row r="48">
@@ -1911,25 +2626,40 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D48" t="n">
-        <v>11234320586.52263</v>
+        <v>10869383463.40676</v>
       </c>
       <c r="E48" t="n">
-        <v>0.004913119409870457</v>
+        <v>0.004633460584861609</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1363983819224717</v>
+        <v>0.1404959513243049</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.1511928240211066</v>
+        <v>0.2412629665382203</v>
       </c>
       <c r="I48" t="n">
-        <v>2.028513199874845</v>
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.9860547595505272</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.2187172507409268</v>
+      </c>
+      <c r="L48" t="n">
+        <v>2.754160773528785</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8670826225859237</v>
+      </c>
+      <c r="N48" t="n">
+        <v>14.58749167818969</v>
       </c>
     </row>
     <row r="49">
@@ -1942,25 +2672,40 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D49" t="n">
-        <v>4704400506.433289</v>
+        <v>12887403097.52122</v>
       </c>
       <c r="E49" t="n">
-        <v>0.003272627013291664</v>
+        <v>0.001218675383278662</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2449901105196949</v>
+        <v>0.08760159680402523</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5434440931755508</v>
+        <v>0.06366795114200112</v>
       </c>
       <c r="I49" t="n">
-        <v>1.525719329820396</v>
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.3392114087631368</v>
+      </c>
+      <c r="L49" t="n">
+        <v>8.748326250987374</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0.7239798167632789</v>
+      </c>
+      <c r="N49" t="n">
+        <v>5.731270084278206</v>
       </c>
     </row>
     <row r="50">
@@ -1973,25 +2718,40 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D50" t="n">
-        <v>9839999523.788349</v>
+        <v>11537033856.39514</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004131512628833012</v>
+        <v>0.003098710838858551</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1408188391320703</v>
+        <v>0.1182888259657421</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.167160245970335</v>
+        <v>0.1667016110641188</v>
       </c>
       <c r="I50" t="n">
-        <v>1.834330739715886</v>
+        <v>10</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.2725425206533321</v>
+      </c>
+      <c r="L50" t="n">
+        <v>2.931738121388937</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0.5139543205379281</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.347348289369625</v>
       </c>
     </row>
     <row r="51">
@@ -2004,25 +2764,40 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="D51" t="n">
-        <v>3662676078.396409</v>
+        <v>11431327370.3772</v>
       </c>
       <c r="E51" t="n">
-        <v>0.002903440489956149</v>
+        <v>0.003893258485698142</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3411300926581073</v>
+        <v>0.1177786635250193</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8907175963919108</v>
+        <v>0.1649887192567331</v>
       </c>
       <c r="I51" t="n">
-        <v>1.654018455282566</v>
+        <v>1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1070122309302951</v>
+      </c>
+      <c r="L51" t="n">
+        <v>8.516127073154532</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0.7669801575292706</v>
+      </c>
+      <c r="N51" t="n">
+        <v>6.823476077430881</v>
       </c>
     </row>
     <row r="52">
@@ -2035,25 +2810,40 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>535</v>
+        <v>428</v>
       </c>
       <c r="D52" t="n">
-        <v>10347607508.39757</v>
+        <v>6290512911.281964</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0032647394106087</v>
+        <v>0.002978364556538109</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1354297260369337</v>
+        <v>0.1782205896103196</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1476938788861091</v>
+        <v>0.3679250229709711</v>
       </c>
       <c r="I52" t="n">
-        <v>1.855136003304346</v>
+        <v>2</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.5331232883015293</v>
+      </c>
+      <c r="L52" t="n">
+        <v>6.479265417014732</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0.699374053114199</v>
+      </c>
+      <c r="N52" t="n">
+        <v>7.508215645269248</v>
       </c>
     </row>
     <row r="53">
@@ -2066,25 +2856,40 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>455</v>
+        <v>528</v>
       </c>
       <c r="D53" t="n">
-        <v>7431816897.682905</v>
+        <v>4564699113.985965</v>
       </c>
       <c r="E53" t="n">
-        <v>0.001614771459233107</v>
+        <v>0.004748837903182749</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1603675744987187</v>
+        <v>0.3029855605953204</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
-        <v>0.2377735086652646</v>
+        <v>0.7868286497180341</v>
       </c>
       <c r="I53" t="n">
-        <v>1.577732488791546</v>
+        <v>8</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.2426299506030334</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.215701014959635</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.6016001544064528</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8.816302073169421</v>
       </c>
     </row>
     <row r="54">
@@ -2097,25 +2902,40 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="D54" t="n">
-        <v>8116108421.003519</v>
+        <v>12241607402.91687</v>
       </c>
       <c r="E54" t="n">
-        <v>0.004702064893980365</v>
+        <v>0.003825806088110311</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1784750270525461</v>
+        <v>0.1300964054459487</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.3031806196592992</v>
+        <v>0.2063460547594357</v>
       </c>
       <c r="I54" t="n">
-        <v>1.917551794069725</v>
+        <v>13</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.3150042204766343</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2.64727304700777</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0.4705525420332927</v>
+      </c>
+      <c r="N54" t="n">
+        <v>6.763777793658083</v>
       </c>
     </row>
     <row r="55">
@@ -2128,25 +2948,40 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>567</v>
+        <v>505</v>
       </c>
       <c r="D55" t="n">
-        <v>8769537907.940809</v>
+        <v>13733603945.40961</v>
       </c>
       <c r="E55" t="n">
-        <v>0.001483566800546472</v>
+        <v>0.001561774962723762</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1693583111893681</v>
+        <v>0.09631790426300568</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="n">
-        <v>0.2702495353672729</v>
+        <v>0.09293331927844983</v>
       </c>
       <c r="I55" t="n">
-        <v>1.966097409109465</v>
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.3004780897265284</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.27354915408313</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.5811394379409647</v>
+      </c>
+      <c r="N55" t="n">
+        <v>8.349239604736164</v>
       </c>
     </row>
     <row r="56">
@@ -2159,25 +2994,40 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="D56" t="n">
-        <v>5425971241.694188</v>
+        <v>8027528511.689223</v>
       </c>
       <c r="E56" t="n">
-        <v>0.001146718870240128</v>
+        <v>0.004915031371577813</v>
       </c>
       <c r="F56" t="n">
-        <v>0.2828917573696406</v>
+        <v>0.1559718434106849</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.6803511050813813</v>
+        <v>0.2932239237760506</v>
       </c>
       <c r="I56" t="n">
-        <v>2.031980743806255</v>
+        <v>1</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.2706123341327289</v>
+      </c>
+      <c r="L56" t="n">
+        <v>8.679727176356966</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.749034273042633</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.300958284495694</v>
       </c>
     </row>
     <row r="57">
@@ -2190,25 +3040,40 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="D57" t="n">
-        <v>10110866682.40184</v>
+        <v>14348863628.29835</v>
       </c>
       <c r="E57" t="n">
-        <v>0.001892700453050512</v>
+        <v>0.002277044999587436</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1080308606878522</v>
+        <v>0.06863892957053627</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.04872464941163009</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>1.445965819397967</v>
+        <v>2</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.2437467094955434</v>
+      </c>
+      <c r="L57" t="n">
+        <v>6.189888838208747</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0.6663073313289006</v>
+      </c>
+      <c r="N57" t="n">
+        <v>7.136257788369265</v>
       </c>
     </row>
     <row r="58">
@@ -2221,25 +3086,40 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>435</v>
+        <v>618</v>
       </c>
       <c r="D58" t="n">
-        <v>5701469613.160773</v>
+        <v>10412964638.26966</v>
       </c>
       <c r="E58" t="n">
-        <v>0.003599858423189042</v>
+        <v>0.003210105022742737</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1998492892726866</v>
+        <v>0.1554584190222503</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.3803879870287547</v>
+        <v>0.2915000798423112</v>
       </c>
       <c r="I58" t="n">
-        <v>1.508381610163346</v>
+        <v>12</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.4643160932080178</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.891818452110338</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0.5348910835349312</v>
+      </c>
+      <c r="N58" t="n">
+        <v>7.806003218588285</v>
       </c>
     </row>
     <row r="59">
@@ -2252,25 +3132,40 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>520</v>
+        <v>603</v>
       </c>
       <c r="D59" t="n">
-        <v>9119287023.27528</v>
+        <v>8550169672.886708</v>
       </c>
       <c r="E59" t="n">
-        <v>0.002381176626755057</v>
+        <v>0.001921373897318952</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1493628609916036</v>
+        <v>0.1847322603443414</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1980226648799364</v>
+        <v>0.3897882307698361</v>
       </c>
       <c r="I59" t="n">
-        <v>1.803122844333196</v>
+        <v>11</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.3582604734970845</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2.893703996284943</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0.561040900411917</v>
+      </c>
+      <c r="N59" t="n">
+        <v>8.327114011953396</v>
       </c>
     </row>
     <row r="60">
@@ -2283,25 +3178,40 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>586</v>
+        <v>388</v>
       </c>
       <c r="D60" t="n">
-        <v>11039501826.88379</v>
+        <v>11187028602.45119</v>
       </c>
       <c r="E60" t="n">
-        <v>0.004383659442112248</v>
+        <v>0.004442299867078091</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1390427361732939</v>
+        <v>0.09084837056529141</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.1607446685711297</v>
+        <v>0.0745691303198099</v>
       </c>
       <c r="I60" t="n">
-        <v>2.031980743806255</v>
+        <v>1</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.04139375179483476</v>
+      </c>
+      <c r="L60" t="n">
+        <v>8.450508594019073</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0.6991386241122872</v>
+      </c>
+      <c r="N60" t="n">
+        <v>5.532263888226671</v>
       </c>
     </row>
     <row r="61">
@@ -2314,25 +3224,40 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="D61" t="n">
-        <v>4371454517.378843</v>
+        <v>3898154374.390912</v>
       </c>
       <c r="E61" t="n">
-        <v>0.00241419510991461</v>
+        <v>0.002019913043639493</v>
       </c>
       <c r="F61" t="n">
-        <v>0.2420781357310163</v>
+        <v>0.2573593228094653</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.5329255590168256</v>
+        <v>0.6336366413167629</v>
       </c>
       <c r="I61" t="n">
-        <v>1.400887748289637</v>
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.07974133220210222</v>
+      </c>
+      <c r="L61" t="n">
+        <v>8.48885617442634</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0.6961132350949865</v>
+      </c>
+      <c r="N61" t="n">
+        <v>5.433408527473389</v>
       </c>
     </row>
     <row r="62">
@@ -2345,25 +3270,40 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="D62" t="n">
-        <v>4055502993.360239</v>
+        <v>12083284026.33822</v>
       </c>
       <c r="E62" t="n">
-        <v>0.003758092146377222</v>
+        <v>0.003771226796759389</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3713840804620047</v>
+        <v>0.1261647890322733</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0.1931454876317851</v>
       </c>
       <c r="I62" t="n">
-        <v>1.993837760560745</v>
+        <v>1</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.7127287748768524</v>
+      </c>
+      <c r="L62" t="n">
+        <v>9.12184361710109</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7984301554476051</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6.846759491851012</v>
       </c>
     </row>
     <row r="63">
@@ -2376,25 +3316,40 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561</v>
+        <v>596</v>
       </c>
       <c r="D63" t="n">
-        <v>8949185089.651192</v>
+        <v>4621669705.815034</v>
       </c>
       <c r="E63" t="n">
-        <v>0.001541526426544644</v>
+        <v>0.002427678262990123</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1642024134353081</v>
+        <v>0.3377905690741457</v>
       </c>
       <c r="G63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
-        <v>0.2516255806353072</v>
+        <v>0.9036879265297521</v>
       </c>
       <c r="I63" t="n">
-        <v>1.945292145521005</v>
+        <v>11</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.9883038014134868</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.5127341537584169</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.048177676546275</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0.8772588642727434</v>
+      </c>
+      <c r="N63" t="n">
+        <v>14.49699960890859</v>
       </c>
     </row>
     <row r="64">
@@ -2407,25 +3362,40 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>522</v>
+        <v>476</v>
       </c>
       <c r="D64" t="n">
-        <v>9299900301.357674</v>
+        <v>11881827269.67192</v>
       </c>
       <c r="E64" t="n">
-        <v>0.001804699437831559</v>
+        <v>0.004610314179341419</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1470254019605337</v>
+        <v>0.1049358496552548</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1895793765800103</v>
+        <v>0.1218684326473722</v>
       </c>
       <c r="I64" t="n">
-        <v>1.810057932196016</v>
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.3847609455365925</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.793875787760831</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0.7480074731832165</v>
+      </c>
+      <c r="N64" t="n">
+        <v>6.166273675903499</v>
       </c>
     </row>
     <row r="65">
@@ -2438,25 +3408,40 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>461</v>
+        <v>383</v>
       </c>
       <c r="D65" t="n">
-        <v>5005146253.535773</v>
+        <v>10421212558.53818</v>
       </c>
       <c r="E65" t="n">
-        <v>0.00233644233676065</v>
+        <v>0.004978969050527762</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2412594415491778</v>
+        <v>0.09626771974611043</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.5299683003376987</v>
+        <v>0.09276482265661756</v>
       </c>
       <c r="I65" t="n">
-        <v>1.598537752380006</v>
+        <v>3</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.0515238373986573</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.906528555203298</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0.6434428527758327</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.962328500313355</v>
       </c>
     </row>
     <row r="66">
@@ -2469,25 +3454,40 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D66" t="n">
-        <v>9305647663.401224</v>
+        <v>9884338767.228622</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001461693853076115</v>
+        <v>0.004938173837721294</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1322974331858624</v>
+        <v>0.1232268924288911</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1363795194770858</v>
+        <v>0.1832813764758371</v>
       </c>
       <c r="I66" t="n">
-        <v>1.629745647762696</v>
+        <v>1</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.5605239361523563</v>
+      </c>
+      <c r="L66" t="n">
+        <v>8.969638778376593</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0.7423003957416295</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5.876369136455997</v>
       </c>
     </row>
     <row r="67">
@@ -2500,25 +3500,40 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="D67" t="n">
-        <v>10216510549.08788</v>
+        <v>7960261279.222124</v>
       </c>
       <c r="E67" t="n">
-        <v>0.004617733709396809</v>
+        <v>0.001302970660678709</v>
       </c>
       <c r="F67" t="n">
-        <v>0.117682060251711</v>
+        <v>0.1266874433672543</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.08358637715728477</v>
+        <v>0.1949003214984553</v>
       </c>
       <c r="I67" t="n">
-        <v>1.591602664517186</v>
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.1862495607038384</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.364596220519193</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4916481436895065</v>
+      </c>
+      <c r="N67" t="n">
+        <v>6.468366653270937</v>
       </c>
     </row>
     <row r="68">
@@ -2531,25 +3546,40 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>446</v>
+        <v>513</v>
       </c>
       <c r="D68" t="n">
-        <v>8741043982.462612</v>
+        <v>3717280303.883665</v>
       </c>
       <c r="E68" t="n">
-        <v>0.004903775497223803</v>
+        <v>0.002442647305339544</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1336508479243311</v>
+        <v>0.3614866139085898</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.141268277172672</v>
+        <v>0.9832483916374063</v>
       </c>
       <c r="I68" t="n">
-        <v>1.546524593408856</v>
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.3100748008714284</v>
+      </c>
+      <c r="L68" t="n">
+        <v>2.969270401607033</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0.5038497053503705</v>
+      </c>
+      <c r="N68" t="n">
+        <v>7.107723705400378</v>
       </c>
     </row>
     <row r="69">
@@ -2562,25 +3592,40 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>544</v>
+        <v>470</v>
       </c>
       <c r="D69" t="n">
-        <v>8323715164.240215</v>
+        <v>12811111670.52669</v>
       </c>
       <c r="E69" t="n">
-        <v>0.001009454970858385</v>
+        <v>0.001473085525823155</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1711913648993861</v>
+        <v>0.09609730456353024</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2768708282914302</v>
+        <v>0.09219264652839819</v>
       </c>
       <c r="I69" t="n">
-        <v>1.886343898687036</v>
+        <v>1</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.08114164213517597</v>
+      </c>
+      <c r="L69" t="n">
+        <v>8.490256484359413</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0.7449071733357278</v>
+      </c>
+      <c r="N69" t="n">
+        <v>6.407886982355141</v>
       </c>
     </row>
     <row r="70">
@@ -2593,25 +3638,40 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>507</v>
+        <v>403</v>
       </c>
       <c r="D70" t="n">
-        <v>9096319111.28219</v>
+        <v>10167585866.30145</v>
       </c>
       <c r="E70" t="n">
-        <v>0.002152856045830613</v>
+        <v>0.002059327837050325</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1459964974571791</v>
+        <v>0.10382151514438</v>
       </c>
       <c r="G70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>0.1858628034809992</v>
+        <v>0.1181270077559979</v>
       </c>
       <c r="I70" t="n">
-        <v>0.1538838739907389</v>
+        <v>1</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.06589521834262357</v>
+      </c>
+      <c r="L70" t="n">
+        <v>8.475010060566861</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0.708036202560518</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5.685713990643499</v>
       </c>
     </row>
     <row r="71">
@@ -2624,25 +3684,40 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>417</v>
+        <v>573</v>
       </c>
       <c r="D71" t="n">
-        <v>9991559214.691269</v>
+        <v>5618946046.688896</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004135454195375603</v>
+        <v>0.002557261864882081</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1093208383726474</v>
+        <v>0.2671160138447047</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.05338426198597831</v>
+        <v>0.666395140977727</v>
       </c>
       <c r="I71" t="n">
-        <v>1.445965819397967</v>
+        <v>1</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.8781069843706988</v>
+      </c>
+      <c r="L71" t="n">
+        <v>9.287221826594937</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0.7944323024967206</v>
+      </c>
+      <c r="N71" t="n">
+        <v>6.601424223339475</v>
       </c>
     </row>
     <row r="72">
@@ -2655,25 +3730,40 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>467</v>
+        <v>532</v>
       </c>
       <c r="D72" t="n">
-        <v>4133526811.98194</v>
+        <v>11596177723.43084</v>
       </c>
       <c r="E72" t="n">
-        <v>0.00148032754405016</v>
+        <v>0.001994795644767385</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2959349692505018</v>
+        <v>0.12017024171545</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.7274653418672662</v>
+        <v>0.1730185434109904</v>
       </c>
       <c r="I72" t="n">
-        <v>0.1234915495347807</v>
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.3187506104630226</v>
+      </c>
+      <c r="L72" t="n">
+        <v>8.72786545268726</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0.7755971881063857</v>
+      </c>
+      <c r="N72" t="n">
+        <v>6.784078309440455</v>
       </c>
     </row>
     <row r="73">
@@ -2686,25 +3776,40 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="D73" t="n">
-        <v>8789987088.593147</v>
+        <v>5620685214.603596</v>
       </c>
       <c r="E73" t="n">
-        <v>0.004150488471087899</v>
+        <v>0.003990783982156835</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1516804855982322</v>
+        <v>0.266101308451497</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2063943079610182</v>
+        <v>0.6629882250305769</v>
       </c>
       <c r="I73" t="n">
-        <v>1.764979861087686</v>
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.9883449567178785</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.4765961298940689</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2.904098488796389</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.8442941597996996</v>
+      </c>
+      <c r="N73" t="n">
+        <v>13.9817847071976</v>
       </c>
     </row>
     <row r="74">
@@ -2717,25 +3822,40 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>453</v>
+        <v>388</v>
       </c>
       <c r="D74" t="n">
-        <v>6191458567.529563</v>
+        <v>11364825614.72863</v>
       </c>
       <c r="E74" t="n">
-        <v>0.001253580176352478</v>
+        <v>0.00196962289377296</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1916484875184193</v>
+        <v>0.08942709324838748</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.3507653358586398</v>
+        <v>0.06979713207411666</v>
       </c>
       <c r="I74" t="n">
-        <v>1.570797400928726</v>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.1692360377066197</v>
+      </c>
+      <c r="L74" t="n">
+        <v>5.02424075551126</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0.6470724288727272</v>
+      </c>
+      <c r="N74" t="n">
+        <v>7.917207821943284</v>
       </c>
     </row>
     <row r="75">
@@ -2748,25 +3868,40 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>568</v>
+        <v>396</v>
       </c>
       <c r="D75" t="n">
-        <v>6572302136.402978</v>
+        <v>13590742414.03849</v>
       </c>
       <c r="E75" t="n">
-        <v>0.002257239628741936</v>
+        <v>0.001746550265105777</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2263763121538841</v>
+        <v>0.07632242657535385</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.4762079774318247</v>
+        <v>0.02579766368723175</v>
       </c>
       <c r="I75" t="n">
-        <v>1.969564953040875</v>
+        <v>1</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.1726936799116815</v>
+      </c>
+      <c r="L75" t="n">
+        <v>8.581808522135919</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0.7039166437319551</v>
+      </c>
+      <c r="N75" t="n">
+        <v>5.496524352503183</v>
       </c>
     </row>
     <row r="76">
@@ -2779,25 +3914,40 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>444</v>
+        <v>603</v>
       </c>
       <c r="D76" t="n">
-        <v>4428506401.929759</v>
+        <v>15550444618.322</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001551751745503338</v>
+        <v>0.002500517279637018</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2626188277594471</v>
+        <v>0.1015721549298336</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.6071219331011456</v>
+        <v>0.1105746864249785</v>
       </c>
       <c r="I76" t="n">
-        <v>0.1512569684162736</v>
+        <v>12</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.2613536611553087</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.688856020057629</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0.5173623870210281</v>
+      </c>
+      <c r="N76" t="n">
+        <v>7.658391720362932</v>
       </c>
     </row>
     <row r="77">
@@ -2810,25 +3960,40 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>520</v>
+        <v>459</v>
       </c>
       <c r="D77" t="n">
-        <v>9467031234.536438</v>
+        <v>12897842574.33575</v>
       </c>
       <c r="E77" t="n">
-        <v>0.003583660996018748</v>
+        <v>0.001640206356068186</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1438764451342486</v>
+        <v>0.0932171410118114</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1782048241386889</v>
+        <v>0.08252237651659519</v>
       </c>
       <c r="I77" t="n">
-        <v>0.1828015183740192</v>
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.1374391805008106</v>
+      </c>
+      <c r="L77" t="n">
+        <v>8.546554022725049</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0.7391437955725439</v>
+      </c>
+      <c r="N77" t="n">
+        <v>6.236321888725831</v>
       </c>
     </row>
     <row r="78">
@@ -2841,25 +4006,40 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="D78" t="n">
-        <v>6903127039.529027</v>
+        <v>8754570166.023359</v>
       </c>
       <c r="E78" t="n">
-        <v>0.002291478011280351</v>
+        <v>0.002681387335630043</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1813769923152716</v>
+        <v>0.1370347826619726</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.3136629977561454</v>
+        <v>0.2296419474814483</v>
       </c>
       <c r="I78" t="n">
-        <v>0.1001190246241275</v>
+        <v>1</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.0632872528968952</v>
+      </c>
+      <c r="L78" t="n">
+        <v>8.472402095121133</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.7386146274916496</v>
+      </c>
+      <c r="N78" t="n">
+        <v>6.299890454711861</v>
       </c>
     </row>
     <row r="79">
@@ -2872,25 +4052,40 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>425</v>
+        <v>533</v>
       </c>
       <c r="D79" t="n">
-        <v>8161828655.119104</v>
+        <v>5927544171.548108</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003928845664380482</v>
+        <v>0.002286660564860322</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1363959961719822</v>
+        <v>0.2355334400882868</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1511842062960783</v>
+        <v>0.5603553239992852</v>
       </c>
       <c r="I79" t="n">
-        <v>1.473706170849246</v>
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.365173325936356</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8.774288168160593</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0.7760694019642322</v>
+      </c>
+      <c r="N79" t="n">
+        <v>6.747099871124052</v>
       </c>
     </row>
     <row r="80">
@@ -2903,25 +4098,40 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>462</v>
+        <v>562</v>
       </c>
       <c r="D80" t="n">
-        <v>9713089127.429396</v>
+        <v>9740190853.390676</v>
       </c>
       <c r="E80" t="n">
-        <v>0.002232241306376718</v>
+        <v>0.00240263065359294</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1245904535749146</v>
+        <v>0.1511363793746963</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1085406354958339</v>
+        <v>0.2769886503199766</v>
       </c>
       <c r="I80" t="n">
-        <v>1.602005296311416</v>
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.5219558866169458</v>
+      </c>
+      <c r="L80" t="n">
+        <v>8.931070728841183</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0.7894813891520491</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.8585570541998</v>
       </c>
     </row>
     <row r="81">
@@ -2934,25 +4144,40 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>424</v>
+        <v>387</v>
       </c>
       <c r="D81" t="n">
-        <v>9724903473.222441</v>
+        <v>11003198703.73601</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001917182933926802</v>
+        <v>0.001780150818363885</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1142038440852498</v>
+        <v>0.09212811267834405</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.07102248556708518</v>
+        <v>0.0788659181780233</v>
       </c>
       <c r="I81" t="n">
-        <v>1.470238626917836</v>
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.2065796588510976</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.384926318666452</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.4943685474270237</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.502444629874021</v>
       </c>
     </row>
     <row r="82">
@@ -2965,25 +4190,40 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>438</v>
+        <v>496</v>
       </c>
       <c r="D82" t="n">
-        <v>9280469164.623446</v>
+        <v>12028882318.93036</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003206823848763001</v>
+        <v>0.003856824950587691</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1236244417872112</v>
+        <v>0.1080081594908752</v>
       </c>
       <c r="G82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.1050512412791689</v>
+        <v>0.1321838418721841</v>
       </c>
       <c r="I82" t="n">
-        <v>0.1323114329630061</v>
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.2941358521968019</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2.82957937498466</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0.4130908285731898</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5.432237196479137</v>
       </c>
     </row>
     <row r="83">
@@ -2996,25 +4236,40 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>437</v>
+        <v>568</v>
       </c>
       <c r="D83" t="n">
-        <v>6467894662.635691</v>
+        <v>6204692365.245024</v>
       </c>
       <c r="E83" t="n">
-        <v>0.001812576781077812</v>
+        <v>0.001074467946424377</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1769777477380161</v>
+        <v>0.2397884427492073</v>
       </c>
       <c r="G83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2977721993404602</v>
+        <v>0.5746416740253056</v>
       </c>
       <c r="I83" t="n">
-        <v>1.515316698026166</v>
+        <v>13</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.9885827650917879</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.4021501819640623</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2.734419008495198</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0.826302414169194</v>
+      </c>
+      <c r="N83" t="n">
+        <v>13.79162927488868</v>
       </c>
     </row>
     <row r="84">
@@ -3027,25 +4282,40 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>526</v>
+        <v>605</v>
       </c>
       <c r="D84" t="n">
-        <v>8164383654.743203</v>
+        <v>9375206383.71752</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001655168646819171</v>
+        <v>0.002189648524973373</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1687572752904072</v>
+        <v>0.1690342468356</v>
       </c>
       <c r="G84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2680784943752906</v>
+        <v>0.3370814915334943</v>
       </c>
       <c r="I84" t="n">
-        <v>1.823928107921656</v>
+        <v>19</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.989847778767077</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.3801823201505666</v>
+      </c>
+      <c r="L84" t="n">
+        <v>2.309365572881273</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0.752479576218281</v>
+      </c>
+      <c r="N84" t="n">
+        <v>12.74022595148435</v>
       </c>
     </row>
     <row r="85">
@@ -3058,25 +4328,40 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D85" t="n">
-        <v>9660333108.198933</v>
+        <v>11664657856.38568</v>
       </c>
       <c r="E85" t="n">
-        <v>0.002764320414065716</v>
+        <v>0.002715974243362818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1309649839016656</v>
+        <v>0.1077877478688072</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1315664924670019</v>
+        <v>0.1314438005999216</v>
       </c>
       <c r="I85" t="n">
-        <v>1.674823718871026</v>
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.09019599151185029</v>
+      </c>
+      <c r="L85" t="n">
+        <v>8.499310833736088</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0.7500577990371617</v>
+      </c>
+      <c r="N85" t="n">
+        <v>6.501845147007147</v>
       </c>
     </row>
     <row r="86">
@@ -3089,25 +4374,40 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="D86" t="n">
-        <v>9607042495.55641</v>
+        <v>6198347412.145194</v>
       </c>
       <c r="E86" t="n">
-        <v>0.003747675497186098</v>
+        <v>0.001306615275381153</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1401436977740799</v>
+        <v>0.2489083956438065</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.1647215238139483</v>
+        <v>0.605262298653746</v>
       </c>
       <c r="I86" t="n">
-        <v>1.782317580744736</v>
+        <v>13</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.4110601237850071</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2.743328950316143</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0.4394035631650997</v>
+      </c>
+      <c r="N86" t="n">
+        <v>6.044742312985852</v>
       </c>
     </row>
     <row r="87">
@@ -3120,25 +4420,40 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="D87" t="n">
-        <v>8735046419.45783</v>
+        <v>10436807010.12077</v>
       </c>
       <c r="E87" t="n">
-        <v>0.00213187991332115</v>
+        <v>0.001730716117933279</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1244466025479314</v>
+        <v>0.1490798534926628</v>
       </c>
       <c r="G87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1080210218140901</v>
+        <v>0.2700837783540576</v>
       </c>
       <c r="I87" t="n">
-        <v>1.439030731535146</v>
+        <v>11</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.9848172197858958</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.2924763412852103</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2.827919864073069</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0.8743779532950313</v>
+      </c>
+      <c r="N87" t="n">
+        <v>14.65963920182756</v>
       </c>
     </row>
     <row r="88">
@@ -3151,25 +4466,40 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D88" t="n">
-        <v>8168028631.84376</v>
+        <v>9648613367.15781</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004376081163326431</v>
+        <v>0.003298927118167436</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1439889798396212</v>
+        <v>0.1199934473424801</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1786113180915575</v>
+        <v>0.1724249488832886</v>
       </c>
       <c r="I88" t="n">
-        <v>1.556927225203086</v>
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.2480176285071592</v>
+      </c>
+      <c r="L88" t="n">
+        <v>8.657132470731398</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0.7300249180390883</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.943365890050369</v>
       </c>
     </row>
     <row r="89">
@@ -3182,25 +4512,40 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D89" t="n">
-        <v>6534457332.713735</v>
+        <v>9358619463.648104</v>
       </c>
       <c r="E89" t="n">
-        <v>0.002511555927821913</v>
+        <v>0.001280075440552624</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2040367611439125</v>
+        <v>0.1617767904636889</v>
       </c>
       <c r="G89" t="b">
         <v>1</v>
       </c>
       <c r="H89" t="n">
-        <v>0.395513827433499</v>
+        <v>0.3127142771531246</v>
       </c>
       <c r="I89" t="n">
-        <v>0.1711975277250629</v>
+        <v>8</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.3007701503922216</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.273841214748823</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0.6412096066905496</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.550350919062168</v>
       </c>
     </row>
     <row r="90">
@@ -3213,25 +4558,40 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>456</v>
+        <v>431</v>
       </c>
       <c r="D90" t="n">
-        <v>5870215236.733413</v>
+        <v>4712978911.474728</v>
       </c>
       <c r="E90" t="n">
-        <v>0.00104923938025695</v>
+        <v>0.003534428900257333</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2034749650278017</v>
+        <v>0.23954214758978</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.3934845270217904</v>
+        <v>0.5738147276899698</v>
       </c>
       <c r="I90" t="n">
-        <v>1.581200032722956</v>
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.5156608453688063</v>
+      </c>
+      <c r="L90" t="n">
+        <v>8.924775687593044</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0.7239798167632789</v>
+      </c>
+      <c r="N90" t="n">
+        <v>5.554820647672535</v>
       </c>
     </row>
     <row r="91">
@@ -3244,25 +4604,40 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="D91" t="n">
-        <v>7123647687.932249</v>
+        <v>10358875164.57079</v>
       </c>
       <c r="E91" t="n">
-        <v>0.001304259300510288</v>
+        <v>0.001962726968511287</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1768653708316271</v>
+        <v>0.1148004045909625</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2973662753835974</v>
+        <v>0.1549890898814477</v>
       </c>
       <c r="I91" t="n">
-        <v>1.667888631008206</v>
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.0377877268563677</v>
+      </c>
+      <c r="L91" t="n">
+        <v>8.446902569080605</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0.7364890581288726</v>
+      </c>
+      <c r="N91" t="n">
+        <v>6.282878593496847</v>
       </c>
     </row>
     <row r="92">
@@ -3275,25 +4650,40 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>549</v>
+        <v>379</v>
       </c>
       <c r="D92" t="n">
-        <v>8693477134.342436</v>
+        <v>14209763685.28034</v>
       </c>
       <c r="E92" t="n">
-        <v>0.004153207347415489</v>
+        <v>0.002117266920926892</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1654165632206235</v>
+        <v>0.06986385079917778</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2560112903057002</v>
+        <v>0.004112724437847907</v>
       </c>
       <c r="I92" t="n">
-        <v>1.903681618344085</v>
+        <v>6</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.128864271289646</v>
+      </c>
+      <c r="L92" t="n">
+        <v>3.561871029941988</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.5333709672155971</v>
+      </c>
+      <c r="N92" t="n">
+        <v>7.105548314369953</v>
       </c>
     </row>
     <row r="93">
@@ -3306,25 +4696,40 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>481</v>
+        <v>396</v>
       </c>
       <c r="D93" t="n">
-        <v>7362045165.272209</v>
+        <v>11678626216.81961</v>
       </c>
       <c r="E93" t="n">
-        <v>0.003862009272679614</v>
+        <v>0.001482920202852919</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1711381228606487</v>
+        <v>0.08881853231214018</v>
       </c>
       <c r="G93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2766785092489314</v>
+        <v>0.06775386318800256</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1344557907840121</v>
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.4213698921071654</v>
+      </c>
+      <c r="L93" t="n">
+        <v>8.830484734331403</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0.7039166437319551</v>
+      </c>
+      <c r="N93" t="n">
+        <v>5.247848140307699</v>
       </c>
     </row>
     <row r="94">
@@ -3337,25 +4742,40 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="D94" t="n">
-        <v>8977171305.702034</v>
+        <v>10393957681.95794</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004689348671871648</v>
+        <v>0.001073756052684995</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1324696855505758</v>
+        <v>0.1290295497669726</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.1370017234842094</v>
+        <v>0.2027640420389544</v>
       </c>
       <c r="I94" t="n">
-        <v>1.574264944860136</v>
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.4811734120426803</v>
+      </c>
+      <c r="L94" t="n">
+        <v>8.890288254266919</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0.7660086623770586</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6.429884993274252</v>
       </c>
     </row>
     <row r="95">
@@ -3368,25 +4788,40 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>583</v>
+        <v>504</v>
       </c>
       <c r="D95" t="n">
-        <v>9617108884.257837</v>
+        <v>12768354334.53631</v>
       </c>
       <c r="E95" t="n">
-        <v>0.001191019939142208</v>
+        <v>0.002183530205805787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1587903795598804</v>
+        <v>0.1033941043153188</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2320764199048678</v>
+        <v>0.1166919579580363</v>
       </c>
       <c r="I95" t="n">
-        <v>2.021578112012025</v>
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.4677559338858057</v>
+      </c>
+      <c r="L95" t="n">
+        <v>8.876870776110044</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0.7620936373379363</v>
+      </c>
+      <c r="N95" t="n">
+        <v>6.365001970648683</v>
       </c>
     </row>
     <row r="96">
@@ -3399,25 +4834,40 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="D96" t="n">
-        <v>5996015682.630806</v>
+        <v>4174044079.543908</v>
       </c>
       <c r="E96" t="n">
-        <v>0.002045385215249732</v>
+        <v>0.003703972865183998</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2599287814597873</v>
+        <v>0.3627195571364051</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.5974050413198249</v>
+        <v>0.9873880502741814</v>
       </c>
       <c r="I96" t="n">
-        <v>2.063188639188945</v>
+        <v>14</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.9886591607747637</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.2872173311530527</v>
+      </c>
+      <c r="L96" t="n">
+        <v>2.534647807270103</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0.8181588323948144</v>
+      </c>
+      <c r="N96" t="n">
+        <v>13.82852884062619</v>
       </c>
     </row>
     <row r="97">
@@ -3430,25 +4880,40 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="D97" t="n">
-        <v>6614738134.071815</v>
+        <v>5901697652.221178</v>
       </c>
       <c r="E97" t="n">
-        <v>0.003263687175329887</v>
+        <v>0.001835714537144573</v>
       </c>
       <c r="F97" t="n">
-        <v>0.237199807187857</v>
+        <v>0.257425284981892</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0.5153042301446787</v>
+        <v>0.6338581120792656</v>
       </c>
       <c r="I97" t="n">
-        <v>2.077058814914585</v>
+        <v>17</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.3893424659828884</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2.428852390244048</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-0.4709519169483359</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-11.84789072921077</v>
       </c>
     </row>
     <row r="98">
@@ -3461,25 +4926,40 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="D98" t="n">
-        <v>9418968480.228348</v>
+        <v>4515079993.747834</v>
       </c>
       <c r="E98" t="n">
-        <v>0.001715347788404721</v>
+        <v>0.001755445146982878</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1134637112591857</v>
+        <v>0.2454002966800773</v>
       </c>
       <c r="G98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="n">
-        <v>0.06834900348777</v>
+        <v>0.5934837091402644</v>
       </c>
       <c r="I98" t="n">
-        <v>0.06502677137242711</v>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.1270455696404666</v>
+      </c>
+      <c r="L98" t="n">
+        <v>8.536160411864705</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0.7195082602157232</v>
+      </c>
+      <c r="N98" t="n">
+        <v>5.854004792449759</v>
       </c>
     </row>
     <row r="99">
@@ -3492,25 +4972,40 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>533</v>
+        <v>417</v>
       </c>
       <c r="D99" t="n">
-        <v>3979293664.582612</v>
+        <v>15369705483.30675</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004233064340437886</v>
+        <v>0.004987218711569141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3508499215391384</v>
+        <v>0.07106744050407127</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.9258272245726151</v>
+        <v>0.008153827389380032</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1009163413655013</v>
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.1941517126041738</v>
+      </c>
+      <c r="L99" t="n">
+        <v>8.603266554828412</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0.7161115408514465</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5.718964262200517</v>
       </c>
     </row>
     <row r="100">
@@ -3523,25 +5018,40 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="D100" t="n">
-        <v>4438334245.622932</v>
+        <v>13976834334.66287</v>
       </c>
       <c r="E100" t="n">
-        <v>0.001900736546156981</v>
+        <v>0.002270177291117059</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2626274826303445</v>
+        <v>0.09407951389528411</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0.6071531959250988</v>
+        <v>0.08541782966857381</v>
       </c>
       <c r="I100" t="n">
-        <v>1.543057049477446</v>
+        <v>8</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.9806631544100484</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.2434480073079061</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3.216519071664508</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0.8498075341365643</v>
+      </c>
+      <c r="N100" t="n">
+        <v>13.77963161106678</v>
       </c>
     </row>
     <row r="101">
@@ -3554,25 +5064,40 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>649</v>
+        <v>604</v>
       </c>
       <c r="D101" t="n">
-        <v>9645452076.380907</v>
+        <v>6595499453.806777</v>
       </c>
       <c r="E101" t="n">
-        <v>0.004566768039588344</v>
+        <v>0.003169170035935485</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1762472195743732</v>
+        <v>0.2398774453823721</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.2951334108890411</v>
+        <v>0.574940504101796</v>
       </c>
       <c r="I101" t="n">
-        <v>2.250436011485085</v>
+        <v>12</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.9883623506420814</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.347937837943383</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2.775440196845703</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0.8687521218480352</v>
+      </c>
+      <c r="N101" t="n">
+        <v>14.599602240115</v>
       </c>
     </row>
   </sheetData>
